--- a/Results/scaling/data/Brain_results.xlsx
+++ b/Results/scaling/data/Brain_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\scaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kang\University\MASTERARBEIT\Transformers for Imaging\Results\scaling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D86FD7-0A3C-457A-B8A1-0AA6F2F1A040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45BD08D-BFEA-46CB-97F7-1DA9AE0DCD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="1440" windowWidth="18285" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>U-Net-8M</t>
+  </si>
+  <si>
+    <t>ViT-156M/16</t>
+  </si>
+  <si>
+    <t>PT-ViT-156M/16</t>
   </si>
 </sst>
 </file>
@@ -59,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -90,6 +96,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -108,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +149,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -154,6 +183,13 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,9 +408,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -622,6 +658,72 @@
         <v>0.82740000000000002</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.79459999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.82140000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8">
+        <v>70</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.82450000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.81850000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="8">
+        <v>35</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.82520000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="8">
+        <v>70</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.82689999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
